--- a/check list.xlsx
+++ b/check list.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9628FDD-3E1A-4D62-A963-3DCE3D8A4B8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B706F1-DE0F-4975-9B3F-3AA89A3EEE2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teston03.13" sheetId="1" r:id="rId1"/>
+    <sheet name="teston03.14" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
   <si>
     <t>D:\Desktop Folders\Projects\computer_vision\test_image\03-19 AvePoint Inc. Inv 106203.pdf</t>
   </si>
@@ -374,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,12 +406,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,19 +419,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,15 +728,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -829,7 +823,7 @@
       <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
@@ -839,7 +833,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -853,7 +847,7 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E7" t="s">
@@ -874,7 +868,7 @@
       <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E8" t="s">
@@ -913,7 +907,7 @@
       <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E10" t="s">
@@ -934,7 +928,7 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E11" t="s">
@@ -944,7 +938,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -958,7 +952,7 @@
       <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
@@ -968,7 +962,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -982,7 +976,7 @@
       <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E13" t="s">
@@ -1003,7 +997,7 @@
       <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E14" t="s">
@@ -1286,4 +1280,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014DCED-4F25-42D5-91C3-55ECEF63953B}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>